--- a/oc_11/BARTCUS_Marius_2_fichier_122022.xlsx
+++ b/oc_11/BARTCUS_Marius_2_fichier_122022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartcus/Documents/GitHub/OC-projects/oc_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BED7B-9640-EF44-B16A-A520DCBD39B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34851FB5-42AF-7C4E-AA26-F874B384238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23020" yWindow="500" windowWidth="71780" windowHeight="40740" xr2:uid="{60A0CCE5-DD59-464B-BCB1-762BFB95DF73}"/>
+    <workbookView xWindow="36580" yWindow="2100" windowWidth="71780" windowHeight="40740" activeTab="2" xr2:uid="{60A0CCE5-DD59-464B-BCB1-762BFB95DF73}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul des ressources" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="365">
   <si>
     <t>UX Designer</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t xml:space="preserve">Profit net annuel </t>
-  </si>
-  <si>
-    <t>Evolution de profit annuel prenant en compte L`APP</t>
   </si>
   <si>
     <t xml:space="preserve">Profit net medium enregistre </t>
@@ -420,9 +417,6 @@
   <si>
     <t>Dépassement de charges (axe coût)
 Dépassement des échéances (axe délai)</t>
-  </si>
-  <si>
-    <t>Création d'une formulaire de satisfaction</t>
   </si>
   <si>
     <t>Budget</t>
@@ -566,9 +560,6 @@
     <t>Développements techniques</t>
   </si>
   <si>
-    <t>adaptation de projet au technique disponible</t>
-  </si>
-  <si>
     <t>Réalisation d’un produit non fonctionnel</t>
   </si>
   <si>
@@ -591,17 +582,9 @@
     <t>Equipe conflictuel</t>
   </si>
   <si>
-    <t>Transfert d'informations aux mauvais contact
-Participation aux ateliers
-Arbitrage d'une question fonctionnelle</t>
-  </si>
-  <si>
     <t>Mauvaise perception des résultats du projet</t>
   </si>
   <si>
-    <t>Mal compréhension du but de projet et l'intention du client</t>
-  </si>
-  <si>
     <t>Insatisfaction du client</t>
   </si>
   <si>
@@ -1017,15 +1000,6 @@
   </si>
   <si>
     <t>On ne peut pas trouver des données cohérentes bien étiqueté et qu'un étiquetage manuelle en interne devrait être fait ce qui peux avoir une nécessité de plus de ressources du temps</t>
-  </si>
-  <si>
-    <t>Intégration du frontend &amp; backend pose de difficulté d’implémentation</t>
-  </si>
-  <si>
-    <t>Le développement du système de recommandation du vêtement nécessite plus ressources (temps, data, budget)</t>
-  </si>
-  <si>
-    <t>Le projet représente une innovation technique ce qui demande plus de temps pour rechercher des solution car der référence technique manque</t>
   </si>
   <si>
     <t>Frontend/Backend Développer</t>
@@ -1036,53 +1010,16 @@
 Solution non fonctionnelle</t>
   </si>
   <si>
-    <t xml:space="preserve">étude préalable de références techniques </t>
-  </si>
-  <si>
     <t>Mauvaise produit</t>
   </si>
   <si>
-    <t>L'application ne marche bien ou il en a beaucoup des bugis</t>
-  </si>
-  <si>
-    <t>étude de faisabilité du début du Project</t>
-  </si>
-  <si>
-    <t>adapter le Project au spécificité technique pour qu'il réalise maximum des fonctionnalité prévue</t>
-  </si>
-  <si>
     <t>Mauvaise compréhension</t>
   </si>
   <si>
-    <t>L'équipe à mal compris les spécification techniques de projet</t>
-  </si>
-  <si>
-    <t>Couts supplémentaires (traductions)
-Dépassement des échéances (axe délai)
-Solution non fonctionnelle
-Erreurs à l'exploitation</t>
-  </si>
-  <si>
-    <t>étude de faisabilité du début de Project</t>
-  </si>
-  <si>
-    <t>demander des explications supplémentaires au client</t>
-  </si>
-  <si>
     <t>Mauvaise périmètre</t>
   </si>
   <si>
-    <t>Discutions avec les utilisateurs et l'équipe dès le premier jour du projet pour posse tous les points et clarifier tous les questions.</t>
-  </si>
-  <si>
     <t>Boudet dépassé</t>
-  </si>
-  <si>
-    <t>Demander si on aura des ressources financière disponible en cas de dépassement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réduire les fonctionnalité du application 
-Attribué les taches moi difficile au employeurs moi calcifié et moins cher </t>
   </si>
   <si>
     <t>Modification du deadline impossible</t>
@@ -1095,57 +1032,18 @@
 Mise à jour du planning en cours de projet</t>
   </si>
   <si>
-    <t>Planifier les deadlines avec des réserves du temps</t>
-  </si>
-  <si>
-    <t>Livrer le projet avec des fonctionnalité simplifié</t>
-  </si>
-  <si>
     <t>Dépassement de date de délivrance du projet</t>
   </si>
   <si>
-    <t xml:space="preserve">Embauche de ressource humaine compétentes
-</t>
-  </si>
-  <si>
-    <t>Effectuer du formation régulière pour mettre à jour les compétence requise</t>
-  </si>
-  <si>
     <t>Défaut du control</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire des control régulière et planifié
-</t>
-  </si>
-  <si>
-    <t>Effectuer du formation régulière pour mettre à jour les compétence requise et s'assurer que les taches sont bien compris</t>
-  </si>
-  <si>
     <t>Pilotage fariné</t>
   </si>
   <si>
-    <t>Contacte directe avec le client ou le facteur décisionnelle</t>
-  </si>
-  <si>
-    <t>Faire des réunions réguliers et rapporter l'avancement du projet au client</t>
-  </si>
-  <si>
     <t>Mauvaise validateur</t>
   </si>
   <si>
-    <t>relation régulière avec le client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">présenter l'avancement par petites étapes </t>
-  </si>
-  <si>
-    <t>établir les rdv par avant et régulière
-attendre les réponses de client avant de prendre des décisions clés</t>
-  </si>
-  <si>
-    <t>reprendre des petites étapes du projet car on les présente régulièrement</t>
-  </si>
-  <si>
     <t>Identification de vêtements et son catégorisation est plus difficile que prévu</t>
   </si>
   <si>
@@ -1156,10 +1054,6 @@
   </si>
   <si>
     <t xml:space="preserve">Donné complexes (catégories de vêtements)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">préparer et chercher des données existantes (établir avec le client des catégories de vêtements visé)
 </t>
   </si>
   <si>
@@ -1177,12 +1071,6 @@
 Donné non cohérents</t>
   </si>
   <si>
-    <t>établir et se mettre d'accord sur les donnes professé</t>
-  </si>
-  <si>
-    <t>utiliser les éléments connu</t>
-  </si>
-  <si>
     <t>Intégration dans une application mobile du système est difficile</t>
   </si>
   <si>
@@ -1195,10 +1083,6 @@
     <t>intégration complexe</t>
   </si>
   <si>
-    <t>utiliser outsourcing pour dépannage temporaire
-former les resourisses en interne</t>
-  </si>
-  <si>
     <t>Faire des recommandations est plus difficile que prévu</t>
   </si>
   <si>
@@ -1209,15 +1093,6 @@
   </si>
   <si>
     <t>Développement et éléments techniques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">établir les deadlines avec les réserves de temps </t>
-  </si>
-  <si>
-    <t>déplacer la date de deadline si possible</t>
-  </si>
-  <si>
-    <t>Il a des conflit dans l'équipe qui peux apparaitre durant le projet et qui pourra ralentisse le bonne déroulement du projet</t>
   </si>
   <si>
     <t>Prise de décision impossible
@@ -1226,13 +1101,6 @@
 Conflit ouvert</t>
   </si>
   <si>
-    <t>établirez des limites des responsabilités et communiquer la zone d'implication</t>
-  </si>
-  <si>
-    <t>organiser des ateliers et des  formations sur le travail en équipe et essayer de harmoniser l'atmosphère de team
-résoudre les conflit qui sont apparu entre les membre d'équipe</t>
-  </si>
-  <si>
     <t>Mauvaise perception du résultat</t>
   </si>
   <si>
@@ -1240,15 +1108,6 @@
 Réunion de bilan</t>
   </si>
   <si>
-    <t>tenir toujours le client au courant de l'avancement et de faire régulièrement de présentation de Project pour s'assurer que on est sur le bon chemin</t>
-  </si>
-  <si>
-    <t>analyser le niveau de cohérence et correcte les incohérences de manière que le résultat final soit satisfaisant</t>
-  </si>
-  <si>
-    <t>Accès/modification/suppression  non authentifié des données des utilisateurs</t>
-  </si>
-  <si>
     <t>Cyber Attaque extérieur, Incident technique</t>
   </si>
   <si>
@@ -1259,17 +1118,6 @@
 Service arrêté</t>
   </si>
   <si>
-    <t>sécurité d'application
-communication encristé
-RBAC-rôle base Access control
-backup &amp; restore
-bluter des informations non-nécessaire (visages...) sur les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ressouder le problème le plus vite en trouvant le source de fuite des données
-</t>
-  </si>
-  <si>
     <t>Responsable</t>
   </si>
   <si>
@@ -1280,21 +1128,6 @@
   </si>
   <si>
     <t>Planifie a amortisse sur 5 ans (cout annuel d`amortissement)</t>
-  </si>
-  <si>
-    <t>Profit évolutive enregistre en utilisant l`app %</t>
-  </si>
-  <si>
-    <t>Profit évolutive enregistre en utilisant l'app (en €)</t>
-  </si>
-  <si>
-    <t>Cout d`amortissent</t>
-  </si>
-  <si>
-    <t>profit medium + profit évolutive en utilisant l'app (en €)</t>
-  </si>
-  <si>
-    <t>profit medium + profit évolutive enregistré en utilisent l'app - cout d'amortissent</t>
   </si>
   <si>
     <t>Evolution de la rentabilité absolue</t>
@@ -1391,6 +1224,166 @@
   </si>
   <si>
     <t>Les utilisateur seront informés de la manière dont leurs données personnelles seront utilisé et ils seront en mesure d'accepter ou non et des modifié leur choix les données personnelles qui seront partagé avec l'application ou le système de recommandation</t>
+  </si>
+  <si>
+    <t>Evolution de profit annuel prenant en compte l'application</t>
+  </si>
+  <si>
+    <t>Profit évolutive enregistre en utilisant l`application %</t>
+  </si>
+  <si>
+    <t>Profit évolutive enregistre en utilisant l'application (en €)</t>
+  </si>
+  <si>
+    <t>Cout d'amortissent</t>
+  </si>
+  <si>
+    <t>profit medium + profit évolutive en utilisant l'application (en €)</t>
+  </si>
+  <si>
+    <t>profit medium + profit évolutive enregistré en utilisent l'application - cout d'amortissent</t>
+  </si>
+  <si>
+    <t>L'intégration du frontend &amp; backend pose des difficultés d'implémentation.</t>
+  </si>
+  <si>
+    <t>L'élaboration du système de recommandations vestimentaires exige davantage de ressources (temps, données, budget)</t>
+  </si>
+  <si>
+    <t>Le projet représente une innovation technique qui prend plus de temps à trouver des solutions car la référence technique est manquante.</t>
+  </si>
+  <si>
+    <t>L'application ne fonctionne pas bien ou il a un grand nombre de bugs.</t>
+  </si>
+  <si>
+    <t>L'équipe a mal compris les spécifications techniques de projet.</t>
+  </si>
+  <si>
+    <t>Il a des conflits dans l'équipe qui peuvent apparaître au cours du projet et qui peuvent ralentir le bon fonctionnement du projet.</t>
+  </si>
+  <si>
+    <t>Mauvaise interprétation de l'objet du projet et de l'intention du client.</t>
+  </si>
+  <si>
+    <t>Accès/changement/suppression de données utilisateur non authentifié.</t>
+  </si>
+  <si>
+    <t>Transfert d'informations aux mauvais contacts
+Participation aux ateliers
+Arbitrage d'une question fonctionnelle</t>
+  </si>
+  <si>
+    <t>Coûts supplémentaires (traductions)
+Dépassement des échéances (axe délai)
+Solution non fonctionnelle
+Erreurs à l'exploitation</t>
+  </si>
+  <si>
+    <t>Contact direct avec le client ou le facteur décisionnel.</t>
+  </si>
+  <si>
+    <t>Un lien régulier avec le client.</t>
+  </si>
+  <si>
+    <t>Discussions avec les utilisateurs et l'équipe le premier jour du projet pour obtenir tous les points et préciser toutes les questions.</t>
+  </si>
+  <si>
+    <t>Demander s'il y aura des ressources financières disponibles en cas de dépassement.</t>
+  </si>
+  <si>
+    <t>La création du formulaire de satisfaction.</t>
+  </si>
+  <si>
+    <t>Réduire le fonctionnment de l'application 
+Attribution de tâches difficiles aux employeurs moins calcifiés et moins coûteux.</t>
+  </si>
+  <si>
+    <t>Planifiez les délais avec des réserves de temps.</t>
+  </si>
+  <si>
+    <t>Livrer le projet avec des fonctionnalités simplifiés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recrutement de personnes compétentes.
+</t>
+  </si>
+  <si>
+    <t>Offrir une formation régulière pour actualiser les compétences requises.</t>
+  </si>
+  <si>
+    <t>Offrir une formation régulière pour actualiser les compétences requises et s'assurer que les taches du projet sont bien compris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire des contrôles réguliers et planifiés.
+</t>
+  </si>
+  <si>
+    <t>Tenir des réunions régulières et rapporter l'avancement du projet au client.</t>
+  </si>
+  <si>
+    <t>Présenter les avancées par petits pas.</t>
+  </si>
+  <si>
+    <t>Fixer des rendez-vous au préalable et régulièrement.
+Attendre les réponses du client avant de prendre des décisions clés.</t>
+  </si>
+  <si>
+    <t>Répétez les petites étapes du projet lorsqu'elles sont présentées sur une base régulière.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparer et analyser les données existantes (établir des catégories de vêtements cibles avec le client)
+</t>
+  </si>
+  <si>
+    <t>établir et conclure un accord sur les données déclarées.</t>
+  </si>
+  <si>
+    <t>Utiliser l'externalisation pour résoudre des problèmes temporaires.
+Former les ressources humaines en interne.</t>
+  </si>
+  <si>
+    <t>changer la date limite si possible.</t>
+  </si>
+  <si>
+    <t>Utiliser les éléments connus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etude préliminaire de références techniques. </t>
+  </si>
+  <si>
+    <t>Adaptation du projet aux techniques disponibles.</t>
+  </si>
+  <si>
+    <t>Étude de faisabilité initiale du projet.</t>
+  </si>
+  <si>
+    <t>Adapter le projet à la spécificité technique pour qu'il atteigne le maximum de fonctionnalité prévue.</t>
+  </si>
+  <si>
+    <t>Demander des explications complémentaires au client.</t>
+  </si>
+  <si>
+    <t>Établir les limites des responsabilités et communiquer la zone d'implication.</t>
+  </si>
+  <si>
+    <t>organiser des ateliers et des formations sur le travail d'équipe et tenter d'harmoniser l'atmosphère de l'équipe et de résoudre les conflits qui sont survenus entre les membres de l'équipe.</t>
+  </si>
+  <si>
+    <t>toujours tenir le client au courant des progrès et faire des présentations régulières du projet pour veiller à ce que nous soyons sur la bonne voie.</t>
+  </si>
+  <si>
+    <t>analyser le degré de cohérence et corriger les contradictions afin que le résultat final soit satisfaisant.</t>
+  </si>
+  <si>
+    <t>sécurité d'application
+communication encristé
+RBAC-rôle base Access control
+backup &amp; restore
+blurer des informations non-nécessaire (visages...) sur les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résoudre le problème aussi rapidement que possible en repérant la source de la fuite de données.
+</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2055,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2410,121 +2403,120 @@
     <xf numFmtId="49" fontId="38" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="26" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="26" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5416,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB8D4C0-39E1-894F-AB5A-5CAFDD968C2B}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6005,7 +5997,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6021,7 +6013,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6049,7 +6041,7 @@
     </row>
     <row r="4" spans="1:9" ht="29">
       <c r="A4" s="28" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28">
@@ -6074,36 +6066,36 @@
     </row>
     <row r="8" spans="1:9" ht="63">
       <c r="A8" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>48</v>
-      </c>
       <c r="C8" s="32" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20">
       <c r="A9" s="2" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="B9" s="2">
         <v>300000</v>
@@ -6138,7 +6130,7 @@
     </row>
     <row r="10" spans="1:9" ht="20">
       <c r="A10" s="2" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="B10" s="2">
         <v>300000</v>
@@ -6173,7 +6165,7 @@
     </row>
     <row r="11" spans="1:9" ht="20">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="B11" s="2">
         <v>300000</v>
@@ -6208,7 +6200,7 @@
     </row>
     <row r="12" spans="1:9" ht="20">
       <c r="A12" s="2" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="B12" s="2">
         <v>300000</v>
@@ -6243,7 +6235,7 @@
     </row>
     <row r="13" spans="1:9" ht="20">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B13" s="2">
         <v>300000</v>
@@ -6326,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C5440-D747-4F41-A15F-2B4D37AA475D}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6351,82 +6343,82 @@
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="L1" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>59</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="146" customHeight="1">
       <c r="A2" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="H2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" s="42" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="L2" s="45">
         <v>2</v>
@@ -6445,35 +6437,35 @@
     </row>
     <row r="3" spans="1:15" ht="248" customHeight="1">
       <c r="A3" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" s="42" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="L3" s="45">
         <v>1</v>
@@ -6492,35 +6484,35 @@
     </row>
     <row r="4" spans="1:15" ht="86" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="L4" s="45">
         <v>1</v>
@@ -6539,35 +6531,35 @@
     </row>
     <row r="5" spans="1:15" ht="191" customHeight="1">
       <c r="A5" s="52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="58" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="H5" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="59" t="s">
+      <c r="I5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" s="42" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="L5" s="45">
         <v>2</v>
@@ -6586,35 +6578,35 @@
     </row>
     <row r="6" spans="1:15" ht="121" customHeight="1">
       <c r="A6" s="52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="H6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>83</v>
-      </c>
       <c r="I6" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="L6" s="45">
         <v>1</v>
@@ -6633,35 +6625,35 @@
     </row>
     <row r="7" spans="1:15" ht="184" customHeight="1">
       <c r="A7" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>87</v>
-      </c>
       <c r="J7" s="42" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="L7" s="45">
         <v>1</v>
@@ -6680,35 +6672,35 @@
     </row>
     <row r="8" spans="1:15" ht="131" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="58" t="s">
+      <c r="H8" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="I8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>92</v>
-      </c>
       <c r="J8" s="42" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="L8" s="45">
         <v>1</v>
@@ -6727,35 +6719,35 @@
     </row>
     <row r="9" spans="1:15" ht="136" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="59" t="s">
+      <c r="I9" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>97</v>
-      </c>
       <c r="J9" s="42" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="L9" s="45">
         <v>1</v>
@@ -6774,35 +6766,35 @@
     </row>
     <row r="10" spans="1:15" ht="142" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="L10" s="45">
         <v>1</v>
@@ -6821,35 +6813,35 @@
     </row>
     <row r="11" spans="1:15" ht="119" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="58" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L11" s="45">
         <v>4</v>
@@ -6868,35 +6860,35 @@
     </row>
     <row r="12" spans="1:15" ht="143" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="58" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="L12" s="45">
         <v>4</v>
@@ -6915,35 +6907,35 @@
     </row>
     <row r="13" spans="1:15" ht="110" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="58" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="L13" s="45">
         <v>2</v>
@@ -6962,35 +6954,35 @@
     </row>
     <row r="14" spans="1:15" ht="106" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="58" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L14" s="45">
         <v>4</v>
@@ -7009,35 +7001,35 @@
     </row>
     <row r="15" spans="1:15" ht="105" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="H15" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="I15" s="41" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>109</v>
+        <v>355</v>
       </c>
       <c r="L15" s="45">
         <v>3</v>
@@ -7056,35 +7048,35 @@
     </row>
     <row r="16" spans="1:15" ht="133" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="65"/>
       <c r="C16" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="L16" s="45">
         <v>1</v>
@@ -7103,35 +7095,35 @@
     </row>
     <row r="17" spans="1:15" ht="144" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="L17" s="45">
         <v>1</v>
@@ -7150,35 +7142,35 @@
     </row>
     <row r="18" spans="1:15" ht="205" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L18" s="45">
         <v>1</v>
@@ -7197,35 +7189,35 @@
     </row>
     <row r="19" spans="1:15" ht="150">
       <c r="A19" s="52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L19" s="45">
         <v>1</v>
@@ -7244,35 +7236,35 @@
     </row>
     <row r="20" spans="1:15" ht="200">
       <c r="A20" s="52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L20" s="45">
         <v>2</v>
@@ -7291,51 +7283,51 @@
     </row>
     <row r="27" spans="1:15" ht="84">
       <c r="A27" s="69" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="29">
       <c r="A30" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="100">
       <c r="A31" s="58" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="72">
       <c r="A32" s="58" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
       <c r="A33" s="58" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7366,50 +7358,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="101" customHeight="1">
-      <c r="A1" s="137" t="s">
-        <v>350</v>
+      <c r="A1" s="174" t="s">
+        <v>300</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="91" t="s">
-        <v>243</v>
-      </c>
       <c r="H1" s="89" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="109" customHeight="1">
-      <c r="A2" s="137"/>
+      <c r="A2" s="174"/>
       <c r="B2" s="93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C2" s="94">
         <v>26190</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G2" s="96">
         <v>606060606</v>
@@ -7418,50 +7410,50 @@
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:9" ht="122" customHeight="1">
-      <c r="A3" s="138" t="s">
-        <v>351</v>
+      <c r="A3" s="175" t="s">
+        <v>301</v>
       </c>
       <c r="B3" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>245</v>
-      </c>
       <c r="D3" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>243</v>
-      </c>
       <c r="H3" s="89" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="78" customHeight="1">
-      <c r="A4" s="138"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C4" s="94">
         <v>26190</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F4" s="93" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G4" s="96">
         <v>609090909</v>
@@ -7470,387 +7462,387 @@
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:9" ht="25">
-      <c r="A5" s="138" t="s">
-        <v>241</v>
+      <c r="A5" s="175" t="s">
+        <v>236</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25">
-      <c r="A6" s="138"/>
+      <c r="A6" s="175"/>
       <c r="B6" s="93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C6" s="94">
         <v>26190</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G6" s="96">
         <v>609090909</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="139" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="141"/>
+      <c r="A7" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="168"/>
     </row>
     <row r="8" spans="1:9" ht="110">
       <c r="A8" s="104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147" t="s">
-        <v>222</v>
-      </c>
-      <c r="I8" s="147"/>
+        <v>218</v>
+      </c>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="173" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="173"/>
     </row>
     <row r="9" spans="1:9" ht="48">
       <c r="A9" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="171" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="144" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145" t="s">
-        <v>208</v>
-      </c>
-      <c r="I9" s="145"/>
+      <c r="I9" s="171"/>
     </row>
     <row r="10" spans="1:9" ht="48">
       <c r="A10" s="86" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="142" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="143"/>
+        <v>193</v>
+      </c>
+      <c r="E10" s="169" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="170"/>
     </row>
     <row r="11" spans="1:9" ht="48">
       <c r="A11" s="83" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="145"/>
+        <v>193</v>
+      </c>
+      <c r="E11" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="171"/>
     </row>
     <row r="12" spans="1:9" ht="48">
       <c r="A12" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="148" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="148"/>
+        <v>193</v>
+      </c>
+      <c r="E12" s="164" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="165"/>
     </row>
     <row r="13" spans="1:9" ht="72">
       <c r="A13" s="86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="149" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="150"/>
+        <v>193</v>
+      </c>
+      <c r="E13" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="167"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="74"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
       <c r="D15" s="75"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="77"/>
       <c r="B17" s="75"/>
       <c r="C17" s="76"/>
       <c r="D17" s="75"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="77"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76"/>
       <c r="D19" s="75"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="77"/>
       <c r="B21" s="75"/>
       <c r="C21" s="76"/>
       <c r="D21" s="75"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
       <c r="D22" s="72"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="77"/>
       <c r="B23" s="75"/>
       <c r="C23" s="76"/>
       <c r="D23" s="75"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="77"/>
       <c r="B25" s="75"/>
       <c r="C25" s="76"/>
       <c r="D25" s="75"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="73"/>
       <c r="D26" s="72"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="77"/>
       <c r="B27" s="75"/>
       <c r="C27" s="76"/>
       <c r="D27" s="75"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
       <c r="C28" s="73"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
       <c r="D29" s="79"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="79"/>
       <c r="I29" s="79"/>
     </row>
@@ -7911,7 +7903,7 @@
     </row>
     <row r="35" spans="1:9" ht="22">
       <c r="A35" s="107" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B35" s="108"/>
       <c r="C35" s="108"/>
@@ -7926,21 +7918,21 @@
       <c r="I35" s="74"/>
     </row>
     <row r="36" spans="1:9" ht="21">
-      <c r="A36" s="169" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
+      <c r="A36" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
       <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="44">
       <c r="A37" s="109" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B37" s="110"/>
       <c r="C37" s="110"/>
@@ -7953,62 +7945,62 @@
     </row>
     <row r="38" spans="1:9" ht="22">
       <c r="A38" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" s="170" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
+        <v>199</v>
+      </c>
+      <c r="B38" s="143" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="22">
       <c r="A39" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
+        <v>197</v>
+      </c>
+      <c r="B39" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
       <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" ht="44">
       <c r="A40" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
+        <v>195</v>
+      </c>
+      <c r="B40" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
       <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" ht="44">
       <c r="A41" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="172" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
+        <v>194</v>
+      </c>
+      <c r="B41" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
       <c r="I41" s="74"/>
     </row>
     <row r="42" spans="1:9" ht="21">
@@ -8024,91 +8016,91 @@
     </row>
     <row r="43" spans="1:9" ht="44">
       <c r="A43" s="109" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B43" s="103" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C43" s="103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F43" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G43" s="103" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H43" s="103" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I43" s="74"/>
     </row>
     <row r="44" spans="1:9" ht="44">
       <c r="A44" s="115" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B44" s="112" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C44" s="118" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D44" s="118">
         <v>75001</v>
       </c>
       <c r="E44" s="118" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F44" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="118" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="119" t="s">
         <v>183</v>
-      </c>
-      <c r="G44" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="119" t="s">
-        <v>188</v>
       </c>
       <c r="I44" s="74"/>
     </row>
     <row r="45" spans="1:9" ht="44">
       <c r="A45" s="113" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C45" s="114" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D45" s="114">
         <v>75001</v>
       </c>
       <c r="E45" s="114" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F45" s="114" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G45" s="121" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H45" s="122" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="44">
       <c r="A46" s="123" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C46" s="125"/>
       <c r="D46" s="125"/>
@@ -8131,7 +8123,7 @@
     </row>
     <row r="48" spans="1:9" ht="44">
       <c r="A48" s="109" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="110"/>
@@ -8144,62 +8136,62 @@
     </row>
     <row r="49" spans="1:9" ht="22">
       <c r="A49" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="168" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
+        <v>173</v>
+      </c>
+      <c r="B49" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
       <c r="I49" s="74"/>
     </row>
     <row r="50" spans="1:9" ht="22">
       <c r="A50" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="167" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
+        <v>171</v>
+      </c>
+      <c r="B50" s="147" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
       <c r="I50" s="74"/>
     </row>
     <row r="51" spans="1:9" ht="22">
       <c r="A51" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="168" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
+        <v>169</v>
+      </c>
+      <c r="B51" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
       <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9" ht="22">
       <c r="A52" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="167" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
+        <v>167</v>
+      </c>
+      <c r="B52" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
       <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9" ht="21">
@@ -8215,70 +8207,70 @@
     </row>
     <row r="54" spans="1:9" ht="44">
       <c r="A54" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="165" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
       <c r="I54" s="74"/>
     </row>
     <row r="55" spans="1:9" ht="88">
       <c r="A55" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="156" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
       <c r="I55" s="74"/>
     </row>
     <row r="56" spans="1:9" ht="110">
       <c r="A56" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="166" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="166"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="166"/>
+        <v>161</v>
+      </c>
+      <c r="B56" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
       <c r="I56" s="74"/>
     </row>
     <row r="57" spans="1:9" ht="44">
       <c r="A57" s="115" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="166" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
+        <v>159</v>
+      </c>
+      <c r="B57" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
       <c r="I57" s="74"/>
     </row>
     <row r="58" spans="1:9" ht="21">
@@ -8294,36 +8286,36 @@
     </row>
     <row r="59" spans="1:9" ht="44">
       <c r="A59" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="163" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" ht="22">
       <c r="A60" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="155" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="164" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
+        <v>155</v>
+      </c>
+      <c r="B60" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="152" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
       <c r="I60" s="74"/>
     </row>
     <row r="61" spans="1:9" ht="21">
@@ -8339,70 +8331,70 @@
     </row>
     <row r="62" spans="1:9" ht="22">
       <c r="A62" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="165" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
+        <v>152</v>
+      </c>
+      <c r="B62" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="149"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
       <c r="I62" s="74"/>
     </row>
     <row r="63" spans="1:9" ht="22">
       <c r="A63" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" s="155" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="161" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
-      <c r="H63" s="161"/>
+        <v>150</v>
+      </c>
+      <c r="B63" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
       <c r="I63" s="74"/>
     </row>
     <row r="64" spans="1:9" ht="22">
       <c r="A64" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="153"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
+        <v>147</v>
+      </c>
+      <c r="B64" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="161"/>
+      <c r="G64" s="161"/>
+      <c r="H64" s="161"/>
       <c r="I64" s="74"/>
     </row>
     <row r="65" spans="1:9" ht="22">
       <c r="A65" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="155" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="161" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" s="161"/>
-      <c r="G65" s="161"/>
-      <c r="H65" s="161"/>
+        <v>144</v>
+      </c>
+      <c r="B65" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="154" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
       <c r="I65" s="74"/>
     </row>
     <row r="66" spans="1:9" ht="21">
@@ -8418,70 +8410,70 @@
     </row>
     <row r="67" spans="1:9" ht="22">
       <c r="A67" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="162" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="162"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="163" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
+        <v>141</v>
+      </c>
+      <c r="B67" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="151"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
       <c r="I67" s="74"/>
     </row>
     <row r="68" spans="1:9" ht="22">
       <c r="A68" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="156" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="157" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
+        <v>138</v>
+      </c>
+      <c r="B68" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
       <c r="I68" s="74"/>
     </row>
     <row r="69" spans="1:9" ht="22">
       <c r="A69" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="158"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="159" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
+        <v>135</v>
+      </c>
+      <c r="B69" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="157"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="157"/>
       <c r="I69" s="74"/>
     </row>
     <row r="70" spans="1:9" ht="22">
       <c r="A70" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="156" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
+        <v>132</v>
+      </c>
+      <c r="B70" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="158"/>
+      <c r="G70" s="158"/>
+      <c r="H70" s="158"/>
       <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9" ht="21">
@@ -8497,48 +8489,125 @@
     </row>
     <row r="72" spans="1:9" ht="22">
       <c r="A72" s="135" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B72" s="102" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C72" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
+        <v>127</v>
+      </c>
+      <c r="D72" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
       <c r="I72" s="74"/>
     </row>
     <row r="73" spans="1:9" ht="44">
       <c r="A73" s="113" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B73" s="136" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C73" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156" t="s">
-        <v>125</v>
-      </c>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
+        <v>122</v>
+      </c>
+      <c r="D73" s="140" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
       <c r="I73" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:H59"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="E55:H55"/>
     <mergeCell ref="A36:H36"/>
@@ -8552,83 +8621,6 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{BD87B6AF-3E2F-A34B-BD12-6FD82EE247E9}"/>
@@ -8657,67 +8649,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28">
-      <c r="A1" s="173" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="174" t="s">
+      <c r="A1" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="137" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="59" customHeight="1">
-      <c r="A2" s="176" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="175" t="s">
-        <v>365</v>
+      <c r="A2" s="139" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="66" customHeight="1">
-      <c r="A3" s="176" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="175" t="s">
-        <v>366</v>
+      <c r="A3" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="54" customHeight="1">
-      <c r="A4" s="176" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" s="175" t="s">
-        <v>361</v>
+      <c r="A4" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42">
-      <c r="A5" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="175" t="s">
-        <v>362</v>
+      <c r="A5" s="139" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="42">
-      <c r="A6" s="176" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="175" t="s">
-        <v>360</v>
+      <c r="A6" s="139" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42">
-      <c r="A7" s="176" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" s="175" t="s">
-        <v>363</v>
+      <c r="A7" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42">
-      <c r="A8" s="176" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="175" t="s">
-        <v>364</v>
+      <c r="A8" s="139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
